--- a/medicine/Psychotrope/Girafe_(récipient)/Girafe_(récipient).xlsx
+++ b/medicine/Psychotrope/Girafe_(récipient)/Girafe_(récipient).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Girafe_(r%C3%A9cipient)</t>
+          <t>Girafe_(récipient)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une girafe est un récipient utilisé principalement pour le service de la bière.
-La girafe est composée d'un cylindre transparent accueillant 1 à 5 litres[1]. Il est monté sur un présentoir muni d'un ou plusieurs robinets, afin d'assurer la distribution du contenu. La forme du cylindre, nettement plus long qu'il est large, donne son nom au récipient, par analogie avec l'animal girafe.
+La girafe est composée d'un cylindre transparent accueillant 1 à 5 litres. Il est monté sur un présentoir muni d'un ou plusieurs robinets, afin d'assurer la distribution du contenu. La forme du cylindre, nettement plus long qu'il est large, donne son nom au récipient, par analogie avec l'animal girafe.
 </t>
         </is>
       </c>
